--- a/src/GoExcel/test/Book1.xlsx
+++ b/src/GoExcel/test/Book1.xlsx
@@ -1,46 +1,393 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="12360" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>Hello world.</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>泉州市丰泽区</t>
+  </si>
+  <si>
+    <t>厦门市集美区</t>
+  </si>
+  <si>
+    <t>福州市金山区</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -48,18 +395,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,20 +741,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -141,12 +784,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -185,171 +828,291 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false" showOutlineSymbols="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" style="1" width="12.4326923076923"/>
+    <col customWidth="true" max="2" min="2" style="2" width="15.1538461538462"/>
+    <col customWidth="true" max="3" min="3" style="1" width="12.4326923076923"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1" spans="1:3" ht="17.25" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2">
-        <v>100</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1" ht="17.25" customHeight="1"/>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/GoExcel/test/Book1.xlsx
+++ b/src/GoExcel/test/Book1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -47,10 +47,13 @@
     <t>福州市金山区</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>2020001</t>
+  </si>
+  <si>
+    <t>2020002</t>
+  </si>
+  <si>
+    <t>2020003</t>
   </si>
 </sst>
 </file>
@@ -60,8 +63,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -72,6 +75,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -87,7 +112,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,56 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -158,7 +148,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,22 +169,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,19 +205,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,30 +373,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,127 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,24 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,17 +414,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,17 +462,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,148 +499,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +999,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1019,10 +1022,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1030,13 +1033,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1047,15 +1050,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1063,13 +1066,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1083,40 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
